--- a/data/cl_schedule_20220617.xlsx
+++ b/data/cl_schedule_20220617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/667b39c49d6998ed/Documents/cl_schedule/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{B1DD927E-CD39-4CAC-9328-B62039A75AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47F6D9B-851D-4245-9E40-683BF5916E75}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{B1DD927E-CD39-4CAC-9328-B62039A75AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B747CBF-64DB-4884-88FB-D3DDC38213FC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{80A1AE39-C22E-4B81-A60C-C6BA34782483}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="220" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1418,7 +1418,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01934169-0AB4-4283-AE95-E16DF4A61ECC}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01934169-0AB4-4283-AE95-E16DF4A61ECC}" name="PivotTable1" cacheId="220" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1797,7 +1797,7 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1">
         <v>12</v>
@@ -3101,12 +3101,12 @@
         <v>33</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1">
         <v>12</v>
@@ -3133,12 +3133,12 @@
         <v>33</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B42" s="1">
         <v>12</v>
@@ -3165,12 +3165,12 @@
         <v>33</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1">
         <v>12</v>
@@ -3197,7 +3197,7 @@
         <v>33</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -4269,7 +4269,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1">
         <v>22</v>
@@ -4296,7 +4296,7 @@
         <v>38</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>14</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1">
         <v>22</v>
@@ -4331,7 +4331,7 @@
         <v>38</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>14</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B77" s="1">
         <v>22</v>
@@ -4366,7 +4366,7 @@
         <v>38</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>14</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B78" s="1">
         <v>22</v>
@@ -4401,7 +4401,7 @@
         <v>38</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>14</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B80" s="3">
         <v>23</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B81" s="3">
         <v>23</v>
